--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/form_modifications/modifications.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/form_modifications/modifications.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="680" windowWidth="25360" windowHeight="15380" activeTab="2"/>
@@ -107,9 +107,6 @@
     <t>fffea2c32b7902a3efcb6b84c94e824820d11856</t>
   </si>
   <si>
-    <t>question1</t>
-  </si>
-  <si>
     <t>english</t>
   </si>
   <si>
@@ -119,15 +116,9 @@
     <t>jr://file/commcare/image/data/question1.png</t>
   </si>
   <si>
-    <t>question2</t>
-  </si>
-  <si>
     <t>jr://file/commcare/image/data/question2.png</t>
   </si>
   <si>
-    <t>question3</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -138,6 +129,15 @@
   </si>
   <si>
     <t>detail</t>
+  </si>
+  <si>
+    <t>question1-label</t>
+  </si>
+  <si>
+    <t>question2-label</t>
+  </si>
+  <si>
+    <t>question3-label</t>
   </si>
 </sst>
 </file>
@@ -596,13 +596,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -610,13 +610,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -637,10 +637,13 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
@@ -673,19 +676,19 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>21</v>
@@ -696,10 +699,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -708,7 +711,7 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
@@ -719,7 +722,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>

--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/form_modifications/modifications.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/form_modifications/modifications.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="680" windowWidth="25360" windowHeight="15380" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="680" windowWidth="25360" windowHeight="15380"/>
   </bookViews>
   <sheets>
     <sheet name="Modules_and_forms" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Type</t>
   </si>
@@ -41,12 +41,6 @@
     <t>label_for_cases_fra</t>
   </si>
   <si>
-    <t>icon_filepath</t>
-  </si>
-  <si>
-    <t>audio_filepath</t>
-  </si>
-  <si>
     <t>unique_id</t>
   </si>
   <si>
@@ -138,16 +132,35 @@
   </si>
   <si>
     <t>question3-label</t>
+  </si>
+  <si>
+    <t>icon_filepath_en</t>
+  </si>
+  <si>
+    <t>audio_filepath_en</t>
+  </si>
+  <si>
+    <t>icon_filepath_fra</t>
+  </si>
+  <si>
+    <t>audio_filepath_fra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,8 +186,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,13 +483,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,71 +511,77 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -582,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -596,30 +618,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -636,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -647,7 +669,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -656,85 +678,85 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/corehq/apps/app_manager/tests/data/bulk_app_translation/form_modifications/modifications.xlsx
+++ b/corehq/apps/app_manager/tests/data/bulk_app_translation/form_modifications/modifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jschweers/Documents/commcare-hq/corehq/apps/app_manager/tests/data/bulk_app_translation/form_modifications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FFDA36-8325-364F-8FBF-0B51CCD69F2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B736C9D-6C01-5D40-BE21-ADFECF40F261}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="989" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,9 +32,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>sheet_name</t>
-  </si>
-  <si>
     <t>default_en</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>menu1_form1</t>
+  </si>
+  <si>
+    <t>menu_or_form</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -506,56 +506,56 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -577,38 +577,38 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -633,58 +633,58 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
